--- a/document/데이터정보_polly.xlsx
+++ b/document/데이터정보_polly.xlsx
@@ -8,23 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS50520\Documents\workspace\Tiget\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44582E5-D4C4-4C2D-8645-D43AD9B4017C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3F5EE0-AA1D-4794-BA92-EDE112C14659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="사용자정보" sheetId="1" r:id="rId1"/>
-    <sheet name="관심장르" sheetId="2" r:id="rId2"/>
-    <sheet name="관심공연" sheetId="3" r:id="rId3"/>
-    <sheet name="관심아티스트" sheetId="4" r:id="rId4"/>
-    <sheet name="장르" sheetId="5" r:id="rId5"/>
-    <sheet name="아티스트" sheetId="8" r:id="rId6"/>
-    <sheet name="아티스트-장르" sheetId="13" r:id="rId7"/>
-    <sheet name="공연정보" sheetId="9" r:id="rId8"/>
-    <sheet name="공연-아티스트" sheetId="15" r:id="rId9"/>
-    <sheet name="이미지" sheetId="10" r:id="rId10"/>
-    <sheet name="게시판" sheetId="11" r:id="rId11"/>
-    <sheet name="댓글" sheetId="12" r:id="rId12"/>
+    <sheet name="장르" sheetId="5" r:id="rId1"/>
+    <sheet name="아티스트" sheetId="8" r:id="rId2"/>
+    <sheet name="아티스트-장르" sheetId="13" r:id="rId3"/>
+    <sheet name="공연정보" sheetId="9" r:id="rId4"/>
+    <sheet name="공연-장르" sheetId="16" r:id="rId5"/>
+    <sheet name="공연-아티스트" sheetId="15" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,47 +30,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="605">
-  <si>
-    <t xml:space="preserve"> 유저이름</t>
-  </si>
-  <si>
-    <t>프로필사진</t>
-  </si>
-  <si>
-    <t>닉네임</t>
-  </si>
-  <si>
-    <t>생년월일</t>
-  </si>
-  <si>
-    <t>회원등급</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>유저이름</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="566">
   <si>
     <t>장르코드</t>
   </si>
   <si>
-    <t>genre_code</t>
-  </si>
-  <si>
     <t>공연코드</t>
   </si>
   <si>
-    <t>concert_code</t>
-  </si>
-  <si>
     <t>가수코드</t>
   </si>
   <si>
-    <t>artist_code</t>
-  </si>
-  <si>
     <t>장르</t>
   </si>
   <si>
@@ -90,90 +54,6 @@
   </si>
   <si>
     <t>데뷔연도</t>
-  </si>
-  <si>
-    <t>일련번호</t>
-  </si>
-  <si>
-    <t>이미지주소</t>
-  </si>
-  <si>
-    <t>i_seq</t>
-  </si>
-  <si>
-    <t>i_url</t>
-  </si>
-  <si>
-    <t>제목</t>
-  </si>
-  <si>
-    <t>내용</t>
-  </si>
-  <si>
-    <t>이미지</t>
-  </si>
-  <si>
-    <t>카테고리</t>
-  </si>
-  <si>
-    <t>작성일자</t>
-  </si>
-  <si>
-    <t>수정일자</t>
-  </si>
-  <si>
-    <t>삭제일자</t>
-  </si>
-  <si>
-    <t>seq</t>
-  </si>
-  <si>
-    <t>b_nickname</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>b_content</t>
-  </si>
-  <si>
-    <t>b_img</t>
-  </si>
-  <si>
-    <t>sort_board</t>
-  </si>
-  <si>
-    <t>b_update_date</t>
-  </si>
-  <si>
-    <t>b_modified_date</t>
-  </si>
-  <si>
-    <t>b_remove_date</t>
-  </si>
-  <si>
-    <t>게시글번호</t>
-  </si>
-  <si>
-    <t>댓글내용</t>
-  </si>
-  <si>
-    <t>board_code</t>
-  </si>
-  <si>
-    <t>r_nickname</t>
-  </si>
-  <si>
-    <t>r_content</t>
-  </si>
-  <si>
-    <t>r_update_date</t>
-  </si>
-  <si>
-    <t>r_modified_date</t>
-  </si>
-  <si>
-    <t>r_remove_date</t>
   </si>
   <si>
     <t>해리 스타일스 내한공연</t>
@@ -1787,14 +1667,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>비밀번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탈퇴날짜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공연코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1817,12 +1689,6 @@
   <si>
     <t>공연장명</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아티스트</t>
-  </si>
-  <si>
-    <t>주요장르</t>
   </si>
   <si>
     <t>CCM
@@ -2388,14 +2254,23 @@
   <si>
     <t>2023-01-15</t>
   </si>
+  <si>
+    <t>G0005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아티스트(X)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주요장르(X)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy\.mm\.dd"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2439,7 +2314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2447,10 +2322,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2749,341 +2620,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="4" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F264FC-E4FD-435F-9A18-14C91FDF1855}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939A34A1-C3C9-4759-A9DA-8DE8B4263943}">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00CE038-3E8E-4C7B-8836-17D0FEAA38C7}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB96695-1479-45C3-9BE9-8F4DC6723098}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C9F593-D8B0-413E-AD4F-C2F3AE5293D2}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4F5F61-496D-4C25-AF01-65151B22FFA6}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D629F6DA-9E02-406A-B6E7-6A514633970A}">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -3096,114 +2632,114 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>442</v>
+        <v>404</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
       <c r="B3" t="s">
-        <v>439</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="B7" t="s">
-        <v>440</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="B8" t="s">
-        <v>441</v>
+        <v>403</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="B9" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="B10" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="B11" t="s">
-        <v>228</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>239</v>
+        <v>201</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="B13" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3215,12 +2751,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BBC312-44A3-46FC-BA5E-D67C08B032A7}">
   <dimension ref="A1:F122"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3228,2086 +2764,2086 @@
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="145.875" customWidth="1"/>
+    <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>467</v>
+        <v>565</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D2" t="s">
-        <v>362</v>
+        <v>324</v>
       </c>
       <c r="E2">
         <v>1958</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>468</v>
+        <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="C3" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D3" t="s">
-        <v>363</v>
+        <v>325</v>
       </c>
       <c r="E3">
         <v>1970</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>469</v>
+        <v>427</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D4" t="s">
-        <v>364</v>
+        <v>326</v>
       </c>
       <c r="E4">
         <v>1973</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>114</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="C5" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D5" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
       <c r="E5">
         <v>1975</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>470</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>297</v>
+        <v>259</v>
       </c>
       <c r="C6" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D6" t="s">
-        <v>437</v>
+        <v>399</v>
       </c>
       <c r="E6">
         <v>1975</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>79</v>
+      <c r="F6" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="C7" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D7" t="s">
-        <v>396</v>
+        <v>358</v>
       </c>
       <c r="E7">
         <v>1977</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>471</v>
+      <c r="F7" s="4" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="C8" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D8" t="s">
-        <v>370</v>
+        <v>332</v>
       </c>
       <c r="E8">
         <v>1978</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>472</v>
+        <v>430</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="C9" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D9" t="s">
-        <v>393</v>
+        <v>355</v>
       </c>
       <c r="E9">
         <v>1978</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>473</v>
+      <c r="F9" s="4" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="99" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="C10" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D10" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
       <c r="E10">
         <v>1984</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>474</v>
+        <v>432</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>299</v>
+        <v>261</v>
       </c>
       <c r="C11" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D11" t="s">
-        <v>397</v>
+        <v>359</v>
       </c>
       <c r="E11">
         <v>1984</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>475</v>
+      <c r="F11" s="4" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c r="C12" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D12" t="s">
-        <v>400</v>
+        <v>362</v>
       </c>
       <c r="E12">
         <v>1986</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>476</v>
+      <c r="F12" s="4" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D13" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="E13">
         <v>1988</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>477</v>
+        <v>435</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="C14" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D14" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="E14">
         <v>1991</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>478</v>
+        <v>436</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="C15" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D15" t="s">
-        <v>367</v>
+        <v>329</v>
       </c>
       <c r="E15">
         <v>1991</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>476</v>
+        <v>434</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="C16" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D16" t="s">
-        <v>369</v>
+        <v>331</v>
       </c>
       <c r="E16">
         <v>1993</v>
       </c>
       <c r="F16" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>349</v>
+        <v>311</v>
       </c>
       <c r="C17" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D17" t="s">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="E17">
         <v>1993</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>77</v>
+      <c r="F17" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="C18" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D18" t="s">
-        <v>372</v>
+        <v>334</v>
       </c>
       <c r="E18">
         <v>1994</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>479</v>
+        <v>437</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>298</v>
+        <v>260</v>
       </c>
       <c r="C19" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D19" t="s">
-        <v>395</v>
+        <v>357</v>
       </c>
       <c r="E19">
         <v>1994</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>480</v>
+      <c r="F19" s="4" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="C20" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D20" t="s">
-        <v>348</v>
+        <v>310</v>
       </c>
       <c r="E20">
         <v>1995</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>481</v>
+        <v>439</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D21" t="s">
-        <v>368</v>
+        <v>330</v>
       </c>
       <c r="E21">
         <v>1996</v>
       </c>
       <c r="F21" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>254</v>
+        <v>216</v>
       </c>
       <c r="C22" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D22" t="s">
-        <v>402</v>
+        <v>364</v>
       </c>
       <c r="E22">
         <v>1996</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>482</v>
+      <c r="F22" s="4" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="42.75" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="C23" t="s">
-        <v>524</v>
+        <v>482</v>
       </c>
       <c r="D23" t="s">
-        <v>399</v>
+        <v>361</v>
       </c>
       <c r="E23">
         <v>1997</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>483</v>
+      <c r="F23" s="4" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D24" t="s">
-        <v>401</v>
+        <v>363</v>
       </c>
       <c r="E24">
         <v>1997</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>484</v>
+      <c r="F24" s="4" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>360</v>
+        <v>322</v>
       </c>
       <c r="C25" t="s">
-        <v>524</v>
+        <v>482</v>
       </c>
       <c r="D25" t="s">
-        <v>429</v>
+        <v>391</v>
       </c>
       <c r="E25">
         <v>1997</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>485</v>
+        <v>443</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="66" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="C26" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D26" t="s">
-        <v>373</v>
+        <v>335</v>
       </c>
       <c r="E26">
         <v>1998</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>486</v>
+        <v>444</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D27" t="s">
-        <v>208</v>
+        <v>170</v>
       </c>
       <c r="E27">
         <v>1998</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>487</v>
+        <v>445</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="C28" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D28" t="s">
-        <v>374</v>
+        <v>336</v>
       </c>
       <c r="E28">
         <v>1998</v>
       </c>
       <c r="F28" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="42.75" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
       <c r="C29" t="s">
-        <v>524</v>
+        <v>482</v>
       </c>
       <c r="D29" t="s">
-        <v>411</v>
+        <v>373</v>
       </c>
       <c r="E29">
         <v>1998</v>
       </c>
-      <c r="F29" s="6" t="s">
-        <v>488</v>
+      <c r="F29" s="4" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D30" t="s">
-        <v>375</v>
+        <v>337</v>
       </c>
       <c r="E30">
         <v>1999</v>
       </c>
       <c r="F30" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>149</v>
+        <v>111</v>
       </c>
       <c r="C31" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D31" t="s">
-        <v>376</v>
+        <v>338</v>
       </c>
       <c r="E31">
         <v>1999</v>
       </c>
       <c r="F31" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="42.75" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="C32" t="s">
-        <v>524</v>
+        <v>482</v>
       </c>
       <c r="D32" t="s">
-        <v>398</v>
+        <v>360</v>
       </c>
       <c r="E32">
         <v>1999</v>
       </c>
-      <c r="F32" s="6" t="s">
-        <v>489</v>
+      <c r="F32" s="4" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="C33" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D33" t="s">
-        <v>431</v>
+        <v>393</v>
       </c>
       <c r="E33">
         <v>1999</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>490</v>
+        <v>448</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>457</v>
+        <v>419</v>
       </c>
       <c r="C34" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D34" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="E34">
         <v>1999</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>491</v>
+        <v>449</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="C35" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D35" t="s">
-        <v>346</v>
+        <v>308</v>
       </c>
       <c r="E35">
         <v>2001</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>492</v>
+        <v>450</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>295</v>
+        <v>257</v>
       </c>
       <c r="C36" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D36" t="s">
-        <v>435</v>
+        <v>397</v>
       </c>
       <c r="E36">
         <v>2001</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="C37" t="s">
-        <v>524</v>
+        <v>482</v>
       </c>
       <c r="D37" t="s">
-        <v>436</v>
+        <v>398</v>
       </c>
       <c r="E37">
         <v>2001</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>493</v>
+        <v>451</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="C38" t="s">
-        <v>523</v>
+        <v>481</v>
       </c>
       <c r="D38" t="s">
-        <v>377</v>
+        <v>339</v>
       </c>
       <c r="E38">
         <v>2002</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="C39" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D39" t="s">
-        <v>378</v>
+        <v>340</v>
       </c>
       <c r="E39">
         <v>2002</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>494</v>
+        <v>452</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="C40" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D40" t="s">
-        <v>379</v>
+        <v>341</v>
       </c>
       <c r="E40">
         <v>2002</v>
       </c>
       <c r="F40" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>267</v>
+        <v>229</v>
       </c>
       <c r="C41" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D41" t="s">
-        <v>326</v>
+        <v>288</v>
       </c>
       <c r="E41">
         <v>2003</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>495</v>
+        <v>453</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
       <c r="C42" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D42" t="s">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="E42">
         <v>2003</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="C43" t="s">
-        <v>524</v>
+        <v>482</v>
       </c>
       <c r="D43" t="s">
-        <v>380</v>
+        <v>342</v>
       </c>
       <c r="E43">
         <v>2004</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>475</v>
+        <v>433</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="C44" t="s">
-        <v>524</v>
+        <v>482</v>
       </c>
       <c r="D44" t="s">
-        <v>381</v>
+        <v>343</v>
       </c>
       <c r="E44">
         <v>2004</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>496</v>
+        <v>454</v>
       </c>
     </row>
     <row r="45" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="C45" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D45" t="s">
-        <v>210</v>
+        <v>172</v>
       </c>
       <c r="E45">
         <v>2004</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>497</v>
+        <v>455</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="C46" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D46" t="s">
-        <v>391</v>
+        <v>353</v>
       </c>
       <c r="E46">
         <v>2004</v>
       </c>
-      <c r="F46" s="6" t="s">
-        <v>493</v>
+      <c r="F46" s="4" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="47" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>347</v>
+        <v>309</v>
       </c>
       <c r="C47" t="s">
-        <v>523</v>
+        <v>481</v>
       </c>
       <c r="D47" t="s">
-        <v>408</v>
+        <v>370</v>
       </c>
       <c r="E47">
         <v>2004</v>
       </c>
-      <c r="F47" s="6" t="s">
-        <v>481</v>
+      <c r="F47" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="48" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>278</v>
+        <v>240</v>
       </c>
       <c r="C48" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D48" t="s">
-        <v>412</v>
+        <v>374</v>
       </c>
       <c r="E48">
         <v>2004</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>482</v>
+        <v>440</v>
       </c>
     </row>
     <row r="49" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>359</v>
+        <v>321</v>
       </c>
       <c r="C49" t="s">
-        <v>523</v>
+        <v>481</v>
       </c>
       <c r="D49" t="s">
-        <v>428</v>
+        <v>390</v>
       </c>
       <c r="E49">
         <v>2004</v>
       </c>
-      <c r="F49" s="6" t="s">
-        <v>498</v>
+      <c r="F49" s="4" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="C50" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D50" t="s">
-        <v>382</v>
+        <v>344</v>
       </c>
       <c r="E50">
         <v>2005</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>487</v>
+        <v>445</v>
       </c>
     </row>
     <row r="51" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="C51" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D51" t="s">
-        <v>383</v>
+        <v>345</v>
       </c>
       <c r="E51">
         <v>2005</v>
       </c>
-      <c r="F51" s="6" t="s">
-        <v>476</v>
+      <c r="F51" s="4" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>313</v>
+        <v>275</v>
       </c>
       <c r="C52" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D52" t="s">
-        <v>314</v>
+        <v>276</v>
       </c>
       <c r="E52">
         <v>2005</v>
       </c>
       <c r="F52" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>325</v>
+        <v>287</v>
       </c>
       <c r="C53" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D53" t="s">
-        <v>406</v>
+        <v>368</v>
       </c>
       <c r="E53">
         <v>2005</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>499</v>
+        <v>457</v>
       </c>
     </row>
     <row r="54" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>352</v>
+        <v>314</v>
       </c>
       <c r="C54" t="s">
-        <v>524</v>
+        <v>482</v>
       </c>
       <c r="D54" t="s">
-        <v>410</v>
+        <v>372</v>
       </c>
       <c r="E54">
         <v>2005</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>487</v>
+        <v>445</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>327</v>
+        <v>289</v>
       </c>
       <c r="C55" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D55" t="s">
-        <v>328</v>
+        <v>290</v>
       </c>
       <c r="E55">
         <v>2006</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>357</v>
+        <v>319</v>
       </c>
       <c r="C56" t="s">
-        <v>524</v>
+        <v>482</v>
       </c>
       <c r="D56" t="s">
-        <v>418</v>
+        <v>380</v>
       </c>
       <c r="E56">
         <v>2006</v>
       </c>
-      <c r="F56" s="6" t="s">
-        <v>470</v>
+      <c r="F56" s="4" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="57" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>285</v>
+        <v>247</v>
       </c>
       <c r="C57" t="s">
-        <v>524</v>
+        <v>482</v>
       </c>
       <c r="D57" t="s">
-        <v>419</v>
+        <v>381</v>
       </c>
       <c r="E57">
         <v>2007</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>500</v>
+        <v>458</v>
       </c>
     </row>
     <row r="58" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="C58" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D58" t="s">
-        <v>324</v>
+        <v>286</v>
       </c>
       <c r="E58">
         <v>2008</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>501</v>
+        <v>459</v>
       </c>
     </row>
     <row r="59" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>351</v>
+        <v>313</v>
       </c>
       <c r="C59" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D59" t="s">
-        <v>409</v>
+        <v>371</v>
       </c>
       <c r="E59">
         <v>2008</v>
       </c>
-      <c r="F59" s="6" t="s">
-        <v>481</v>
+      <c r="F59" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="C60" t="s">
-        <v>524</v>
+        <v>482</v>
       </c>
       <c r="D60" t="s">
-        <v>384</v>
+        <v>346</v>
       </c>
       <c r="E60">
         <v>2009</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="C61" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D61" t="s">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="E61">
         <v>2009</v>
       </c>
-      <c r="F61" s="5" t="s">
-        <v>77</v>
+      <c r="F61" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="62" spans="2:6" ht="66" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="C62" t="s">
-        <v>524</v>
+        <v>482</v>
       </c>
       <c r="D62" t="s">
-        <v>385</v>
+        <v>347</v>
       </c>
       <c r="E62">
         <v>2010</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>502</v>
+        <v>460</v>
       </c>
     </row>
     <row r="63" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="C63" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D63" t="s">
-        <v>386</v>
+        <v>348</v>
       </c>
       <c r="E63">
         <v>2010</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>503</v>
+        <v>461</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="C64" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D64" t="s">
-        <v>387</v>
+        <v>349</v>
       </c>
       <c r="E64">
         <v>2010</v>
       </c>
       <c r="F64" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" spans="2:6" ht="42.75" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>255</v>
+        <v>217</v>
       </c>
       <c r="C65" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D65" t="s">
-        <v>403</v>
+        <v>365</v>
       </c>
       <c r="E65">
         <v>2010</v>
       </c>
-      <c r="F65" s="6" t="s">
-        <v>504</v>
+      <c r="F65" s="4" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>271</v>
+        <v>233</v>
       </c>
       <c r="C66" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D66" t="s">
-        <v>338</v>
+        <v>300</v>
       </c>
       <c r="E66">
         <v>2010</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="C67" t="s">
-        <v>524</v>
+        <v>482</v>
       </c>
       <c r="D67" t="s">
-        <v>342</v>
+        <v>304</v>
       </c>
       <c r="E67">
         <v>2010</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="C68" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D68" t="s">
-        <v>426</v>
+        <v>388</v>
       </c>
       <c r="E68">
         <v>2010</v>
       </c>
-      <c r="F68" s="5" t="s">
-        <v>79</v>
+      <c r="F68" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>293</v>
+        <v>255</v>
       </c>
       <c r="C69" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D69" t="s">
-        <v>433</v>
+        <v>395</v>
       </c>
       <c r="E69">
         <v>2010</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
     </row>
     <row r="70" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="C70" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D70" t="s">
-        <v>318</v>
+        <v>280</v>
       </c>
       <c r="E70">
         <v>2011</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>505</v>
+        <v>463</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>268</v>
+        <v>230</v>
       </c>
       <c r="C71" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D71" t="s">
-        <v>331</v>
+        <v>293</v>
       </c>
       <c r="E71">
         <v>2011</v>
       </c>
-      <c r="F71" s="5" t="s">
-        <v>113</v>
+      <c r="F71" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D72" t="s">
-        <v>207</v>
+        <v>169</v>
       </c>
       <c r="E72">
         <v>2012</v>
       </c>
       <c r="F72" t="s">
-        <v>114</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="C73" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D73" t="s">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="E73">
         <v>2012</v>
       </c>
       <c r="F73" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="C74" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D74" t="s">
-        <v>388</v>
+        <v>350</v>
       </c>
       <c r="E74">
         <v>2012</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>506</v>
+        <v>464</v>
       </c>
     </row>
     <row r="75" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>257</v>
+        <v>219</v>
       </c>
       <c r="C75" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D75" t="s">
-        <v>315</v>
+        <v>277</v>
       </c>
       <c r="E75">
         <v>2012</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>481</v>
+        <v>439</v>
       </c>
     </row>
     <row r="76" spans="2:6" ht="42.75" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>258</v>
+        <v>220</v>
       </c>
       <c r="C76" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D76" t="s">
-        <v>316</v>
+        <v>278</v>
       </c>
       <c r="E76">
         <v>2012</v>
       </c>
-      <c r="F76" s="6" t="s">
-        <v>507</v>
+      <c r="F76" s="4" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>361</v>
+        <v>323</v>
       </c>
       <c r="C77" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D77" t="s">
-        <v>432</v>
+        <v>394</v>
       </c>
       <c r="E77">
         <v>2012</v>
       </c>
-      <c r="F77" s="5" t="s">
-        <v>78</v>
+      <c r="F77" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="C78" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D78" t="s">
-        <v>389</v>
+        <v>351</v>
       </c>
       <c r="E78">
         <v>2013</v>
       </c>
       <c r="F78" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
     </row>
     <row r="79" spans="2:6" ht="42.75" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="C79" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D79" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="E79">
         <v>2013</v>
       </c>
-      <c r="F79" s="6" t="s">
-        <v>508</v>
+      <c r="F79" s="4" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="80" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
-        <v>292</v>
+        <v>254</v>
       </c>
       <c r="C80" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D80" t="s">
-        <v>430</v>
+        <v>392</v>
       </c>
       <c r="E80">
         <v>2013</v>
       </c>
-      <c r="F80" s="6" t="s">
-        <v>493</v>
+      <c r="F80" s="4" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B81" s="1" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="C81" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D81" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="E81">
         <v>2014</v>
       </c>
       <c r="F81" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
     <row r="82" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
-        <v>308</v>
+        <v>270</v>
       </c>
       <c r="C82" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D82" t="s">
-        <v>309</v>
+        <v>271</v>
       </c>
       <c r="E82">
         <v>2014</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>497</v>
+        <v>455</v>
       </c>
     </row>
     <row r="83" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
-        <v>311</v>
+        <v>273</v>
       </c>
       <c r="C83" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D83" t="s">
-        <v>312</v>
+        <v>274</v>
       </c>
       <c r="E83">
         <v>2014</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>481</v>
+        <v>439</v>
       </c>
     </row>
     <row r="84" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
-        <v>279</v>
+        <v>241</v>
       </c>
       <c r="C84" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D84" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="E84">
         <v>2014</v>
       </c>
-      <c r="F84" s="6" t="s">
-        <v>509</v>
+      <c r="F84" s="4" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="85" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
-        <v>286</v>
+        <v>248</v>
       </c>
       <c r="C85" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D85" t="s">
-        <v>420</v>
+        <v>382</v>
       </c>
       <c r="E85">
         <v>2014</v>
       </c>
-      <c r="F85" s="6" t="s">
-        <v>499</v>
+      <c r="F85" s="4" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
-        <v>302</v>
+        <v>264</v>
       </c>
       <c r="C86" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D86" t="s">
-        <v>303</v>
+        <v>265</v>
       </c>
       <c r="E86">
         <v>2015</v>
       </c>
       <c r="F86" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
     </row>
     <row r="87" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="C87" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D87" t="s">
-        <v>404</v>
+        <v>366</v>
       </c>
       <c r="E87">
         <v>2015</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>510</v>
+        <v>468</v>
       </c>
     </row>
     <row r="88" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="C88" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D88" t="s">
-        <v>405</v>
+        <v>367</v>
       </c>
       <c r="E88">
         <v>2015</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>481</v>
+        <v>439</v>
       </c>
     </row>
     <row r="89" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="C89" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D89" t="s">
-        <v>321</v>
+        <v>283</v>
       </c>
       <c r="E89">
         <v>2015</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>511</v>
+        <v>469</v>
       </c>
     </row>
     <row r="90" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
-        <v>280</v>
+        <v>242</v>
       </c>
       <c r="C90" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D90" t="s">
-        <v>414</v>
+        <v>376</v>
       </c>
       <c r="E90">
         <v>2015</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>512</v>
+        <v>470</v>
       </c>
     </row>
     <row r="91" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="C91" t="s">
-        <v>523</v>
+        <v>481</v>
       </c>
       <c r="D91" t="s">
-        <v>434</v>
+        <v>396</v>
       </c>
       <c r="E91">
         <v>2015</v>
       </c>
-      <c r="F91" s="6" t="s">
-        <v>487</v>
+      <c r="F91" s="4" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
-        <v>261</v>
+        <v>223</v>
       </c>
       <c r="C92" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D92" t="s">
-        <v>319</v>
+        <v>281</v>
       </c>
       <c r="E92">
         <v>2016</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
     <row r="93" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
       <c r="C93" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D93" t="s">
-        <v>330</v>
+        <v>292</v>
       </c>
       <c r="E93">
         <v>2016</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>501</v>
+        <v>459</v>
       </c>
     </row>
     <row r="94" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="C94" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D94" t="s">
-        <v>413</v>
+        <v>375</v>
       </c>
       <c r="E94">
         <v>2016</v>
       </c>
-      <c r="F94" s="6" t="s">
-        <v>501</v>
+      <c r="F94" s="4" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="C95" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D95" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="E95">
         <v>2017</v>
       </c>
       <c r="F95" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
     </row>
     <row r="96" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
-        <v>306</v>
+        <v>268</v>
       </c>
       <c r="C96" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D96" t="s">
-        <v>307</v>
+        <v>269</v>
       </c>
       <c r="E96">
         <v>2017</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>476</v>
+        <v>434</v>
       </c>
     </row>
     <row r="97" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="C97" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D97" t="s">
-        <v>317</v>
+        <v>279</v>
       </c>
       <c r="E97">
         <v>2017</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>501</v>
+        <v>459</v>
       </c>
     </row>
     <row r="98" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
-        <v>270</v>
+        <v>232</v>
       </c>
       <c r="C98" t="s">
-        <v>524</v>
+        <v>482</v>
       </c>
       <c r="D98" t="s">
-        <v>335</v>
+        <v>297</v>
       </c>
       <c r="E98">
         <v>2017</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>513</v>
+        <v>471</v>
       </c>
     </row>
     <row r="99" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
-        <v>282</v>
+        <v>244</v>
       </c>
       <c r="C99" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D99" t="s">
-        <v>355</v>
+        <v>317</v>
       </c>
       <c r="E99">
         <v>2017</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>514</v>
+        <v>472</v>
       </c>
     </row>
     <row r="100" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B100" s="1" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="C100" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D100" t="s">
-        <v>390</v>
+        <v>352</v>
       </c>
       <c r="E100">
         <v>2018</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>515</v>
+        <v>473</v>
       </c>
     </row>
     <row r="101" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="C101" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D101" t="s">
-        <v>394</v>
+        <v>356</v>
       </c>
       <c r="E101">
         <v>2018</v>
       </c>
-      <c r="F101" s="6" t="s">
-        <v>476</v>
+      <c r="F101" s="4" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="102" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
-        <v>322</v>
+        <v>284</v>
       </c>
       <c r="C102" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D102" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
       <c r="E102">
         <v>2018</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>499</v>
+        <v>457</v>
       </c>
     </row>
     <row r="103" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="C103" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D103" t="s">
-        <v>323</v>
+        <v>285</v>
       </c>
       <c r="E103">
         <v>2018</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>516</v>
+        <v>474</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
-        <v>269</v>
+        <v>231</v>
       </c>
       <c r="C104" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D104" t="s">
-        <v>334</v>
+        <v>296</v>
       </c>
       <c r="E104">
         <v>2018</v>
       </c>
-      <c r="F104" s="5" t="s">
-        <v>113</v>
+      <c r="F104" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="105" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="C105" t="s">
-        <v>524</v>
+        <v>482</v>
       </c>
       <c r="D105" t="s">
-        <v>337</v>
+        <v>299</v>
       </c>
       <c r="E105">
         <v>2018</v>
       </c>
-      <c r="F105" s="6" t="s">
-        <v>513</v>
+      <c r="F105" s="4" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="106" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
-        <v>272</v>
+        <v>234</v>
       </c>
       <c r="C106" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D106" t="s">
-        <v>343</v>
+        <v>305</v>
       </c>
       <c r="E106">
         <v>2018</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>484</v>
+        <v>442</v>
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="C107" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D107" t="s">
-        <v>415</v>
+        <v>377</v>
       </c>
       <c r="E107">
         <v>2018</v>
       </c>
-      <c r="F107" s="5" t="s">
-        <v>113</v>
+      <c r="F107" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="108" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
-        <v>287</v>
+        <v>249</v>
       </c>
       <c r="C108" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D108" t="s">
-        <v>421</v>
+        <v>383</v>
       </c>
       <c r="E108">
         <v>2018</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>501</v>
+        <v>459</v>
       </c>
     </row>
     <row r="109" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
-        <v>289</v>
+        <v>251</v>
       </c>
       <c r="C109" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D109" t="s">
-        <v>423</v>
+        <v>385</v>
       </c>
       <c r="E109">
         <v>2018</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>499</v>
+        <v>457</v>
       </c>
     </row>
     <row r="110" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="C110" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D110" t="s">
-        <v>427</v>
+        <v>389</v>
       </c>
       <c r="E110">
         <v>2018</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>476</v>
+        <v>434</v>
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
-        <v>300</v>
+        <v>262</v>
       </c>
       <c r="C111" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D111" t="s">
-        <v>301</v>
+        <v>263</v>
       </c>
       <c r="E111">
         <v>2019</v>
       </c>
-      <c r="F111" s="5" t="s">
-        <v>79</v>
+      <c r="F111" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="112" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
-        <v>345</v>
+        <v>307</v>
       </c>
       <c r="C112" t="s">
-        <v>524</v>
+        <v>482</v>
       </c>
       <c r="D112" t="s">
-        <v>407</v>
+        <v>369</v>
       </c>
       <c r="E112">
         <v>2019</v>
       </c>
-      <c r="F112" s="6" t="s">
-        <v>517</v>
+      <c r="F112" s="4" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="113" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="C113" t="s">
-        <v>524</v>
+        <v>482</v>
       </c>
       <c r="D113" t="s">
-        <v>416</v>
+        <v>378</v>
       </c>
       <c r="E113">
         <v>2019</v>
       </c>
-      <c r="F113" s="6" t="s">
-        <v>499</v>
+      <c r="F113" s="4" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="114" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
-        <v>288</v>
+        <v>250</v>
       </c>
       <c r="C114" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D114" t="s">
-        <v>422</v>
+        <v>384</v>
       </c>
       <c r="E114">
         <v>2019</v>
       </c>
-      <c r="F114" s="6" t="s">
-        <v>518</v>
+      <c r="F114" s="4" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="115" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
-        <v>290</v>
+        <v>252</v>
       </c>
       <c r="C115" t="s">
-        <v>523</v>
+        <v>481</v>
       </c>
       <c r="D115" t="s">
-        <v>424</v>
+        <v>386</v>
       </c>
       <c r="E115">
         <v>2019</v>
       </c>
-      <c r="F115" s="6" t="s">
-        <v>499</v>
+      <c r="F115" s="4" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="116" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
-        <v>358</v>
+        <v>320</v>
       </c>
       <c r="C116" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D116" t="s">
-        <v>425</v>
+        <v>387</v>
       </c>
       <c r="E116">
         <v>2019</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>519</v>
+        <v>477</v>
       </c>
     </row>
     <row r="117" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
-        <v>284</v>
+        <v>246</v>
       </c>
       <c r="C117" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D117" t="s">
-        <v>417</v>
+        <v>379</v>
       </c>
       <c r="E117">
         <v>2019</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>501</v>
+        <v>459</v>
       </c>
     </row>
     <row r="118" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="C118" t="s">
-        <v>524</v>
+        <v>482</v>
       </c>
       <c r="D118" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="E118">
         <v>2020</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>520</v>
+        <v>478</v>
       </c>
     </row>
     <row r="119" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
-        <v>304</v>
+        <v>266</v>
       </c>
       <c r="C119" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D119" t="s">
-        <v>305</v>
+        <v>267</v>
       </c>
       <c r="E119">
         <v>2020</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>488</v>
+        <v>446</v>
       </c>
     </row>
     <row r="120" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
-        <v>332</v>
+        <v>294</v>
       </c>
       <c r="C120" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D120" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
       <c r="E120">
         <v>2020</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>501</v>
+        <v>459</v>
       </c>
     </row>
     <row r="121" spans="2:6" ht="29.25" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
-        <v>339</v>
+        <v>301</v>
       </c>
       <c r="C121" t="s">
-        <v>523</v>
+        <v>481</v>
       </c>
       <c r="D121" t="s">
-        <v>344</v>
+        <v>306</v>
       </c>
       <c r="E121">
         <v>2020</v>
       </c>
-      <c r="F121" s="6" t="s">
-        <v>521</v>
+      <c r="F121" s="4" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="122" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B122" t="s">
-        <v>256</v>
+        <v>218</v>
       </c>
       <c r="C122" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="D122" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="E122">
         <v>2021</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>470</v>
+        <v>428</v>
       </c>
     </row>
   </sheetData>
@@ -5320,7 +4856,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{475450A4-A2B6-47BA-B746-B5C9BBF465F5}">
   <dimension ref="A1:B243"/>
   <sheetViews>
@@ -5336,10 +4872,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>536</v>
+        <v>494</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -5347,7 +4883,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -5355,7 +4891,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -5363,7 +4899,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -5371,7 +4907,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -5379,7 +4915,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>537</v>
+        <v>495</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -5387,7 +4923,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -5395,7 +4931,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>537</v>
+        <v>495</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -5403,7 +4939,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -5411,7 +4947,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -5419,7 +4955,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -5427,7 +4963,7 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -5435,7 +4971,7 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>537</v>
+        <v>495</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -5443,7 +4979,7 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -5451,7 +4987,7 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -5459,7 +4995,7 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>537</v>
+        <v>495</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -5467,7 +5003,7 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -5475,7 +5011,7 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>537</v>
+        <v>495</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -5483,7 +5019,7 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -5491,7 +5027,7 @@
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -5499,7 +5035,7 @@
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -5507,7 +5043,7 @@
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -5515,7 +5051,7 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>239</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -5523,7 +5059,7 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -5531,7 +5067,7 @@
         <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -5539,7 +5075,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -5547,7 +5083,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -5555,7 +5091,7 @@
         <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>239</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -5563,7 +5099,7 @@
         <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -5571,7 +5107,7 @@
         <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>537</v>
+        <v>495</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -5579,7 +5115,7 @@
         <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -5587,7 +5123,7 @@
         <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -5595,7 +5131,7 @@
         <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -5603,7 +5139,7 @@
         <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -5611,7 +5147,7 @@
         <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>239</v>
+        <v>201</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -5619,7 +5155,7 @@
         <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>537</v>
+        <v>495</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -5627,7 +5163,7 @@
         <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -5635,7 +5171,7 @@
         <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -5643,7 +5179,7 @@
         <v>18</v>
       </c>
       <c r="B39" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -5651,7 +5187,7 @@
         <v>19</v>
       </c>
       <c r="B40" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -5659,7 +5195,7 @@
         <v>19</v>
       </c>
       <c r="B41" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -5667,7 +5203,7 @@
         <v>20</v>
       </c>
       <c r="B42" t="s">
-        <v>239</v>
+        <v>201</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -5675,7 +5211,7 @@
         <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -5683,7 +5219,7 @@
         <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -5691,7 +5227,7 @@
         <v>22</v>
       </c>
       <c r="B45" t="s">
-        <v>537</v>
+        <v>495</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -5699,7 +5235,7 @@
         <v>22</v>
       </c>
       <c r="B46" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -5707,7 +5243,7 @@
         <v>22</v>
       </c>
       <c r="B47" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -5715,7 +5251,7 @@
         <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -5723,7 +5259,7 @@
         <v>23</v>
       </c>
       <c r="B49" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -5731,7 +5267,7 @@
         <v>24</v>
       </c>
       <c r="B50" t="s">
-        <v>537</v>
+        <v>495</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -5739,7 +5275,7 @@
         <v>24</v>
       </c>
       <c r="B51" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -5747,7 +5283,7 @@
         <v>25</v>
       </c>
       <c r="B52" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -5755,7 +5291,7 @@
         <v>25</v>
       </c>
       <c r="B53" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -5763,7 +5299,7 @@
         <v>25</v>
       </c>
       <c r="B54" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -5771,7 +5307,7 @@
         <v>25</v>
       </c>
       <c r="B55" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -5779,7 +5315,7 @@
         <v>26</v>
       </c>
       <c r="B56" t="s">
-        <v>537</v>
+        <v>495</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -5787,7 +5323,7 @@
         <v>26</v>
       </c>
       <c r="B57" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -5795,7 +5331,7 @@
         <v>27</v>
       </c>
       <c r="B58" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -5803,7 +5339,7 @@
         <v>28</v>
       </c>
       <c r="B59" t="s">
-        <v>537</v>
+        <v>495</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -5811,7 +5347,7 @@
         <v>28</v>
       </c>
       <c r="B60" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -5819,7 +5355,7 @@
         <v>28</v>
       </c>
       <c r="B61" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -5827,7 +5363,7 @@
         <v>29</v>
       </c>
       <c r="B62" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -5835,7 +5371,7 @@
         <v>30</v>
       </c>
       <c r="B63" t="s">
-        <v>537</v>
+        <v>495</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -5843,7 +5379,7 @@
         <v>31</v>
       </c>
       <c r="B64" t="s">
-        <v>537</v>
+        <v>495</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -5851,7 +5387,7 @@
         <v>31</v>
       </c>
       <c r="B65" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -5859,7 +5395,7 @@
         <v>31</v>
       </c>
       <c r="B66" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -5867,7 +5403,7 @@
         <v>32</v>
       </c>
       <c r="B67" t="s">
-        <v>537</v>
+        <v>495</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -5875,7 +5411,7 @@
         <v>32</v>
       </c>
       <c r="B68" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -5883,7 +5419,7 @@
         <v>33</v>
       </c>
       <c r="B69" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -5891,7 +5427,7 @@
         <v>33</v>
       </c>
       <c r="B70" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -5899,7 +5435,7 @@
         <v>33</v>
       </c>
       <c r="B71" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -5907,7 +5443,7 @@
         <v>34</v>
       </c>
       <c r="B72" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -5915,7 +5451,7 @@
         <v>34</v>
       </c>
       <c r="B73" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -5923,7 +5459,7 @@
         <v>34</v>
       </c>
       <c r="B74" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -5931,7 +5467,7 @@
         <v>35</v>
       </c>
       <c r="B75" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -5939,7 +5475,7 @@
         <v>36</v>
       </c>
       <c r="B76" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -5947,7 +5483,7 @@
         <v>36</v>
       </c>
       <c r="B77" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -5955,7 +5491,7 @@
         <v>37</v>
       </c>
       <c r="B78" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -5963,7 +5499,7 @@
         <v>38</v>
       </c>
       <c r="B79" t="s">
-        <v>537</v>
+        <v>495</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -5971,7 +5507,7 @@
         <v>38</v>
       </c>
       <c r="B80" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -5979,7 +5515,7 @@
         <v>39</v>
       </c>
       <c r="B81" t="s">
-        <v>537</v>
+        <v>495</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -5987,7 +5523,7 @@
         <v>40</v>
       </c>
       <c r="B82" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -5995,7 +5531,7 @@
         <v>40</v>
       </c>
       <c r="B83" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -6003,7 +5539,7 @@
         <v>40</v>
       </c>
       <c r="B84" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -6011,7 +5547,7 @@
         <v>41</v>
       </c>
       <c r="B85" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -6019,7 +5555,7 @@
         <v>42</v>
       </c>
       <c r="B86" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -6027,7 +5563,7 @@
         <v>42</v>
       </c>
       <c r="B87" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -6035,7 +5571,7 @@
         <v>43</v>
       </c>
       <c r="B88" t="s">
-        <v>537</v>
+        <v>495</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -6043,7 +5579,7 @@
         <v>43</v>
       </c>
       <c r="B89" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -6051,7 +5587,7 @@
         <v>43</v>
       </c>
       <c r="B90" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -6059,7 +5595,7 @@
         <v>44</v>
       </c>
       <c r="B91" t="s">
-        <v>537</v>
+        <v>495</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -6067,7 +5603,7 @@
         <v>44</v>
       </c>
       <c r="B92" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -6075,7 +5611,7 @@
         <v>44</v>
       </c>
       <c r="B93" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -6083,7 +5619,7 @@
         <v>45</v>
       </c>
       <c r="B94" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -6091,7 +5627,7 @@
         <v>45</v>
       </c>
       <c r="B95" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -6099,7 +5635,7 @@
         <v>46</v>
       </c>
       <c r="B96" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -6107,7 +5643,7 @@
         <v>46</v>
       </c>
       <c r="B97" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -6115,7 +5651,7 @@
         <v>47</v>
       </c>
       <c r="B98" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -6123,7 +5659,7 @@
         <v>47</v>
       </c>
       <c r="B99" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -6131,7 +5667,7 @@
         <v>48</v>
       </c>
       <c r="B100" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -6139,7 +5675,7 @@
         <v>48</v>
       </c>
       <c r="B101" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -6147,7 +5683,7 @@
         <v>49</v>
       </c>
       <c r="B102" t="s">
-        <v>537</v>
+        <v>495</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -6155,7 +5691,7 @@
         <v>49</v>
       </c>
       <c r="B103" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -6163,7 +5699,7 @@
         <v>50</v>
       </c>
       <c r="B104" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -6171,7 +5707,7 @@
         <v>50</v>
       </c>
       <c r="B105" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -6179,7 +5715,7 @@
         <v>51</v>
       </c>
       <c r="B106" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -6187,7 +5723,7 @@
         <v>52</v>
       </c>
       <c r="B107" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -6195,7 +5731,7 @@
         <v>52</v>
       </c>
       <c r="B108" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -6203,7 +5739,7 @@
         <v>53</v>
       </c>
       <c r="B109" t="s">
-        <v>537</v>
+        <v>495</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -6211,7 +5747,7 @@
         <v>53</v>
       </c>
       <c r="B110" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -6219,7 +5755,7 @@
         <v>54</v>
       </c>
       <c r="B111" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -6227,7 +5763,7 @@
         <v>55</v>
       </c>
       <c r="B112" t="s">
-        <v>537</v>
+        <v>495</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -6235,7 +5771,7 @@
         <v>55</v>
       </c>
       <c r="B113" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -6243,7 +5779,7 @@
         <v>56</v>
       </c>
       <c r="B114" t="s">
-        <v>537</v>
+        <v>495</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -6251,7 +5787,7 @@
         <v>56</v>
       </c>
       <c r="B115" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -6259,7 +5795,7 @@
         <v>56</v>
       </c>
       <c r="B116" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -6267,7 +5803,7 @@
         <v>57</v>
       </c>
       <c r="B117" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -6275,7 +5811,7 @@
         <v>57</v>
       </c>
       <c r="B118" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -6283,7 +5819,7 @@
         <v>58</v>
       </c>
       <c r="B119" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -6291,7 +5827,7 @@
         <v>58</v>
       </c>
       <c r="B120" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -6299,7 +5835,7 @@
         <v>59</v>
       </c>
       <c r="B121" t="s">
-        <v>537</v>
+        <v>495</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -6307,7 +5843,7 @@
         <v>60</v>
       </c>
       <c r="B122" t="s">
-        <v>239</v>
+        <v>201</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -6315,7 +5851,7 @@
         <v>61</v>
       </c>
       <c r="B123" t="s">
-        <v>537</v>
+        <v>495</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
@@ -6323,7 +5859,7 @@
         <v>61</v>
       </c>
       <c r="B124" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
@@ -6331,7 +5867,7 @@
         <v>61</v>
       </c>
       <c r="B125" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -6339,7 +5875,7 @@
         <v>61</v>
       </c>
       <c r="B126" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
@@ -6347,7 +5883,7 @@
         <v>62</v>
       </c>
       <c r="B127" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
@@ -6355,7 +5891,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
@@ -6363,7 +5899,7 @@
         <v>62</v>
       </c>
       <c r="B129" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
@@ -6371,7 +5907,7 @@
         <v>63</v>
       </c>
       <c r="B130" t="s">
-        <v>239</v>
+        <v>201</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
@@ -6379,7 +5915,7 @@
         <v>64</v>
       </c>
       <c r="B131" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
@@ -6387,7 +5923,7 @@
         <v>64</v>
       </c>
       <c r="B132" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
@@ -6395,7 +5931,7 @@
         <v>64</v>
       </c>
       <c r="B133" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
@@ -6403,7 +5939,7 @@
         <v>65</v>
       </c>
       <c r="B134" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
@@ -6411,7 +5947,7 @@
         <v>66</v>
       </c>
       <c r="B135" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
@@ -6419,7 +5955,7 @@
         <v>67</v>
       </c>
       <c r="B136" t="s">
-        <v>537</v>
+        <v>495</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
@@ -6427,7 +5963,7 @@
         <v>68</v>
       </c>
       <c r="B137" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
@@ -6435,7 +5971,7 @@
         <v>69</v>
       </c>
       <c r="B138" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
@@ -6443,7 +5979,7 @@
         <v>69</v>
       </c>
       <c r="B139" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
@@ -6451,7 +5987,7 @@
         <v>69</v>
       </c>
       <c r="B140" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
@@ -6459,7 +5995,7 @@
         <v>70</v>
       </c>
       <c r="B141" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
@@ -6467,7 +6003,7 @@
         <v>71</v>
       </c>
       <c r="B142" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
@@ -6475,7 +6011,7 @@
         <v>72</v>
       </c>
       <c r="B143" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
@@ -6483,7 +6019,7 @@
         <v>73</v>
       </c>
       <c r="B144" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
@@ -6491,7 +6027,7 @@
         <v>73</v>
       </c>
       <c r="B145" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
@@ -6499,7 +6035,7 @@
         <v>73</v>
       </c>
       <c r="B146" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
@@ -6507,7 +6043,7 @@
         <v>74</v>
       </c>
       <c r="B147" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
@@ -6515,7 +6051,7 @@
         <v>74</v>
       </c>
       <c r="B148" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
@@ -6523,7 +6059,7 @@
         <v>75</v>
       </c>
       <c r="B149" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
@@ -6531,7 +6067,7 @@
         <v>75</v>
       </c>
       <c r="B150" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
@@ -6539,7 +6075,7 @@
         <v>75</v>
       </c>
       <c r="B151" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
@@ -6547,7 +6083,7 @@
         <v>76</v>
       </c>
       <c r="B152" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
@@ -6555,7 +6091,7 @@
         <v>77</v>
       </c>
       <c r="B153" t="s">
-        <v>537</v>
+        <v>495</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
@@ -6563,7 +6099,7 @@
         <v>78</v>
       </c>
       <c r="B154" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
@@ -6571,7 +6107,7 @@
         <v>78</v>
       </c>
       <c r="B155" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
@@ -6579,7 +6115,7 @@
         <v>78</v>
       </c>
       <c r="B156" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
@@ -6587,7 +6123,7 @@
         <v>79</v>
       </c>
       <c r="B157" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
@@ -6595,7 +6131,7 @@
         <v>79</v>
       </c>
       <c r="B158" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
@@ -6603,7 +6139,7 @@
         <v>80</v>
       </c>
       <c r="B159" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
@@ -6611,7 +6147,7 @@
         <v>81</v>
       </c>
       <c r="B160" t="s">
-        <v>537</v>
+        <v>495</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
@@ -6619,7 +6155,7 @@
         <v>81</v>
       </c>
       <c r="B161" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
@@ -6627,7 +6163,7 @@
         <v>81</v>
       </c>
       <c r="B162" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
@@ -6635,7 +6171,7 @@
         <v>82</v>
       </c>
       <c r="B163" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
@@ -6643,7 +6179,7 @@
         <v>82</v>
       </c>
       <c r="B164" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
@@ -6651,7 +6187,7 @@
         <v>83</v>
       </c>
       <c r="B165" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
@@ -6659,7 +6195,7 @@
         <v>83</v>
       </c>
       <c r="B166" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
@@ -6667,7 +6203,7 @@
         <v>84</v>
       </c>
       <c r="B167" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
@@ -6675,7 +6211,7 @@
         <v>84</v>
       </c>
       <c r="B168" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
@@ -6683,7 +6219,7 @@
         <v>85</v>
       </c>
       <c r="B169" t="s">
-        <v>537</v>
+        <v>495</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
@@ -6691,7 +6227,7 @@
         <v>86</v>
       </c>
       <c r="B170" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
@@ -6699,7 +6235,7 @@
         <v>86</v>
       </c>
       <c r="B171" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
@@ -6707,7 +6243,7 @@
         <v>86</v>
       </c>
       <c r="B172" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
@@ -6715,7 +6251,7 @@
         <v>87</v>
       </c>
       <c r="B173" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
@@ -6723,7 +6259,7 @@
         <v>87</v>
       </c>
       <c r="B174" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
@@ -6731,7 +6267,7 @@
         <v>88</v>
       </c>
       <c r="B175" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
@@ -6739,7 +6275,7 @@
         <v>88</v>
       </c>
       <c r="B176" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
@@ -6747,7 +6283,7 @@
         <v>88</v>
       </c>
       <c r="B177" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
@@ -6755,7 +6291,7 @@
         <v>89</v>
       </c>
       <c r="B178" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
@@ -6763,7 +6299,7 @@
         <v>89</v>
       </c>
       <c r="B179" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
@@ -6771,7 +6307,7 @@
         <v>89</v>
       </c>
       <c r="B180" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
@@ -6779,7 +6315,7 @@
         <v>90</v>
       </c>
       <c r="B181" t="s">
-        <v>537</v>
+        <v>495</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
@@ -6787,7 +6323,7 @@
         <v>90</v>
       </c>
       <c r="B182" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
@@ -6795,7 +6331,7 @@
         <v>91</v>
       </c>
       <c r="B183" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
@@ -6803,7 +6339,7 @@
         <v>92</v>
       </c>
       <c r="B184" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
@@ -6811,7 +6347,7 @@
         <v>92</v>
       </c>
       <c r="B185" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
@@ -6819,7 +6355,7 @@
         <v>93</v>
       </c>
       <c r="B186" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
@@ -6827,7 +6363,7 @@
         <v>93</v>
       </c>
       <c r="B187" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
@@ -6835,7 +6371,7 @@
         <v>94</v>
       </c>
       <c r="B188" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
@@ -6843,7 +6379,7 @@
         <v>95</v>
       </c>
       <c r="B189" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
@@ -6851,7 +6387,7 @@
         <v>95</v>
       </c>
       <c r="B190" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
@@ -6859,7 +6395,7 @@
         <v>96</v>
       </c>
       <c r="B191" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
@@ -6867,7 +6403,7 @@
         <v>96</v>
       </c>
       <c r="B192" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
@@ -6875,7 +6411,7 @@
         <v>97</v>
       </c>
       <c r="B193" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
@@ -6883,7 +6419,7 @@
         <v>97</v>
       </c>
       <c r="B194" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
@@ -6891,7 +6427,7 @@
         <v>98</v>
       </c>
       <c r="B195" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
@@ -6899,7 +6435,7 @@
         <v>98</v>
       </c>
       <c r="B196" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
@@ -6907,7 +6443,7 @@
         <v>98</v>
       </c>
       <c r="B197" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
@@ -6915,7 +6451,7 @@
         <v>99</v>
       </c>
       <c r="B198" t="s">
-        <v>537</v>
+        <v>495</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
@@ -6923,7 +6459,7 @@
         <v>99</v>
       </c>
       <c r="B199" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
@@ -6931,7 +6467,7 @@
         <v>99</v>
       </c>
       <c r="B200" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
@@ -6939,7 +6475,7 @@
         <v>100</v>
       </c>
       <c r="B201" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
@@ -6947,7 +6483,7 @@
         <v>100</v>
       </c>
       <c r="B202" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
@@ -6955,7 +6491,7 @@
         <v>101</v>
       </c>
       <c r="B203" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
@@ -6963,7 +6499,7 @@
         <v>101</v>
       </c>
       <c r="B204" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
@@ -6971,7 +6507,7 @@
         <v>102</v>
       </c>
       <c r="B205" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
@@ -6979,7 +6515,7 @@
         <v>102</v>
       </c>
       <c r="B206" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
@@ -6987,7 +6523,7 @@
         <v>103</v>
       </c>
       <c r="B207" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
@@ -6995,7 +6531,7 @@
         <v>104</v>
       </c>
       <c r="B208" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
@@ -7003,7 +6539,7 @@
         <v>104</v>
       </c>
       <c r="B209" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
@@ -7011,7 +6547,7 @@
         <v>105</v>
       </c>
       <c r="B210" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
@@ -7019,7 +6555,7 @@
         <v>105</v>
       </c>
       <c r="B211" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
@@ -7027,7 +6563,7 @@
         <v>106</v>
       </c>
       <c r="B212" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
@@ -7035,7 +6571,7 @@
         <v>107</v>
       </c>
       <c r="B213" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
@@ -7043,7 +6579,7 @@
         <v>107</v>
       </c>
       <c r="B214" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
@@ -7051,7 +6587,7 @@
         <v>108</v>
       </c>
       <c r="B215" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
@@ -7059,7 +6595,7 @@
         <v>108</v>
       </c>
       <c r="B216" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
@@ -7067,7 +6603,7 @@
         <v>109</v>
       </c>
       <c r="B217" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
@@ -7075,7 +6611,7 @@
         <v>109</v>
       </c>
       <c r="B218" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
@@ -7083,7 +6619,7 @@
         <v>110</v>
       </c>
       <c r="B219" t="s">
-        <v>537</v>
+        <v>495</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
@@ -7091,7 +6627,7 @@
         <v>111</v>
       </c>
       <c r="B220" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
@@ -7099,7 +6635,7 @@
         <v>111</v>
       </c>
       <c r="B221" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
@@ -7107,7 +6643,7 @@
         <v>112</v>
       </c>
       <c r="B222" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
@@ -7115,7 +6651,7 @@
         <v>112</v>
       </c>
       <c r="B223" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
@@ -7123,7 +6659,7 @@
         <v>113</v>
       </c>
       <c r="B224" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
@@ -7131,7 +6667,7 @@
         <v>113</v>
       </c>
       <c r="B225" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
@@ -7139,7 +6675,7 @@
         <v>114</v>
       </c>
       <c r="B226" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
@@ -7147,7 +6683,7 @@
         <v>114</v>
       </c>
       <c r="B227" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
@@ -7155,7 +6691,7 @@
         <v>115</v>
       </c>
       <c r="B228" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
@@ -7163,7 +6699,7 @@
         <v>115</v>
       </c>
       <c r="B229" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
@@ -7171,7 +6707,7 @@
         <v>115</v>
       </c>
       <c r="B230" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
@@ -7179,7 +6715,7 @@
         <v>116</v>
       </c>
       <c r="B231" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
@@ -7187,7 +6723,7 @@
         <v>116</v>
       </c>
       <c r="B232" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
@@ -7195,7 +6731,7 @@
         <v>117</v>
       </c>
       <c r="B233" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
@@ -7203,7 +6739,7 @@
         <v>117</v>
       </c>
       <c r="B234" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
@@ -7211,7 +6747,7 @@
         <v>118</v>
       </c>
       <c r="B235" t="s">
-        <v>537</v>
+        <v>495</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
@@ -7219,7 +6755,7 @@
         <v>118</v>
       </c>
       <c r="B236" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
@@ -7227,7 +6763,7 @@
         <v>118</v>
       </c>
       <c r="B237" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
@@ -7235,7 +6771,7 @@
         <v>119</v>
       </c>
       <c r="B238" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
@@ -7243,7 +6779,7 @@
         <v>119</v>
       </c>
       <c r="B239" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
@@ -7251,7 +6787,7 @@
         <v>120</v>
       </c>
       <c r="B240" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
@@ -7259,7 +6795,7 @@
         <v>120</v>
       </c>
       <c r="B241" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
@@ -7267,7 +6803,7 @@
         <v>121</v>
       </c>
       <c r="B242" t="s">
-        <v>537</v>
+        <v>495</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
@@ -7275,7 +6811,7 @@
         <v>121</v>
       </c>
       <c r="B243" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -7289,12 +6825,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A81AC2-7BBD-4C22-9BDE-F65FA3F996EC}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B27" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7302,1326 +6838,1327 @@
     <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="69.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="66.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="43" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>460</v>
+        <v>420</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>461</v>
+        <v>421</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>464</v>
+        <v>422</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>424</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="H1" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>580</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>466</v>
+      <c r="K1" s="6" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>538</v>
-      </c>
-      <c r="D2" s="11">
+        <v>496</v>
+      </c>
+      <c r="D2" s="9">
         <v>44897</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="9">
         <v>44899</v>
       </c>
       <c r="F2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="H2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="J2" s="7">
+      <c r="J2" s="5">
         <v>0</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>91</v>
+      <c r="K2" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D3" s="11">
+        <v>175</v>
+      </c>
+      <c r="D3" s="9">
         <v>44898</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="9">
         <v>44899</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>527</v>
+        <v>13</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>485</v>
       </c>
       <c r="H3" t="s">
-        <v>541</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="J3" s="7">
+        <v>499</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="J3" s="5">
         <v>0</v>
       </c>
-      <c r="K3" s="8" t="s">
-        <v>50</v>
+      <c r="K3" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>218</v>
-      </c>
-      <c r="D4" s="11">
+        <v>180</v>
+      </c>
+      <c r="D4" s="9">
         <v>44898</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="9">
         <v>44905</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>527</v>
+        <v>26</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>485</v>
       </c>
       <c r="H4" t="s">
-        <v>553</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="J4" s="7">
+        <v>511</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="J4" s="5">
         <v>0</v>
       </c>
-      <c r="K4" s="8" t="s">
-        <v>63</v>
+      <c r="K4" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>535</v>
+        <v>493</v>
       </c>
       <c r="C5" t="s">
-        <v>204</v>
-      </c>
-      <c r="D5" s="11">
+        <v>166</v>
+      </c>
+      <c r="D5" s="9">
         <v>44898</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="9">
         <v>44899</v>
       </c>
       <c r="F5" t="s">
-        <v>135</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>528</v>
+        <v>97</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>486</v>
       </c>
       <c r="H5" t="s">
-        <v>554</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="J5" s="7">
+        <v>512</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="J5" s="5">
         <v>0</v>
       </c>
-      <c r="K5" s="8" t="s">
-        <v>126</v>
+      <c r="K5" s="6" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>198</v>
-      </c>
-      <c r="D6" s="11">
+        <v>160</v>
+      </c>
+      <c r="D6" s="9">
         <v>44903</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="9">
         <v>44904</v>
       </c>
       <c r="F6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="J6" s="7">
+        <v>92</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="J6" s="5">
         <v>0</v>
       </c>
-      <c r="K6" s="9" t="s">
-        <v>189</v>
+      <c r="K6" s="7" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>455</v>
-      </c>
-      <c r="D7" s="11">
+        <v>417</v>
+      </c>
+      <c r="D7" s="9">
         <v>44904</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="9">
         <v>44906</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>526</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>484</v>
       </c>
       <c r="H7" t="s">
-        <v>555</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="J7" s="7">
+        <v>513</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="J7" s="5">
         <v>0</v>
       </c>
-      <c r="K7" s="8" t="s">
-        <v>90</v>
+      <c r="K7" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>196</v>
-      </c>
-      <c r="D8" s="11">
+        <v>158</v>
+      </c>
+      <c r="D8" s="9">
         <v>44904</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="9">
         <v>44906</v>
       </c>
       <c r="F8" t="s">
-        <v>128</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="J8" s="7">
+        <v>90</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="J8" s="5">
         <v>0</v>
       </c>
-      <c r="K8" s="8" t="s">
-        <v>125</v>
+      <c r="K8" s="6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>454</v>
-      </c>
-      <c r="D9" s="11">
+        <v>416</v>
+      </c>
+      <c r="D9" s="9">
         <v>44905</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="9">
         <v>44905</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="J9" s="7">
+        <v>60</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="J9" s="5">
         <v>0</v>
       </c>
-      <c r="K9" s="8" t="s">
-        <v>92</v>
+      <c r="K9" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>453</v>
-      </c>
-      <c r="D10" s="11">
+        <v>415</v>
+      </c>
+      <c r="D10" s="9">
         <v>44905</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="9">
         <v>44906</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="J10" s="7">
+        <v>61</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="J10" s="5">
         <v>0</v>
       </c>
-      <c r="K10" s="8" t="s">
-        <v>93</v>
+      <c r="K10" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>201</v>
-      </c>
-      <c r="D11" s="11">
+        <v>163</v>
+      </c>
+      <c r="D11" s="9">
         <v>44905</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="9">
         <v>44905</v>
       </c>
       <c r="F11" t="s">
-        <v>132</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="J11" s="7">
+        <v>94</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="J11" s="5">
         <v>0</v>
       </c>
-      <c r="K11" s="9" t="s">
-        <v>192</v>
+      <c r="K11" s="7" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>452</v>
-      </c>
-      <c r="D12" s="11">
+        <v>414</v>
+      </c>
+      <c r="D12" s="9">
         <v>44911</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="9">
         <v>44913</v>
       </c>
       <c r="F12" t="s">
-        <v>100</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="J12" s="7">
+        <v>62</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="J12" s="5">
         <v>0</v>
       </c>
-      <c r="K12" s="8" t="s">
-        <v>94</v>
+      <c r="K12" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>197</v>
-      </c>
-      <c r="D13" s="11">
+        <v>159</v>
+      </c>
+      <c r="D13" s="9">
         <v>44912</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="9">
         <v>44913</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="J13" s="7">
+        <v>91</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="J13" s="5">
         <v>0</v>
       </c>
-      <c r="K13" s="8" t="s">
-        <v>109</v>
+      <c r="K13" s="6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>451</v>
-      </c>
-      <c r="D14" s="11">
+        <v>413</v>
+      </c>
+      <c r="D14" s="9">
         <v>44918</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="9">
         <v>44920</v>
       </c>
       <c r="F14" t="s">
-        <v>100</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="J14" s="7">
+        <v>62</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="J14" s="5">
         <v>0</v>
       </c>
-      <c r="K14" s="8" t="s">
-        <v>74</v>
+      <c r="K14" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="99" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>450</v>
-      </c>
-      <c r="D15" s="11">
+        <v>412</v>
+      </c>
+      <c r="D15" s="9">
         <v>44918</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="9">
         <v>44920</v>
       </c>
       <c r="F15" t="s">
-        <v>101</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="J15" s="7">
+        <v>63</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="J15" s="5">
         <v>0</v>
       </c>
-      <c r="K15" s="9" t="s">
-        <v>187</v>
+      <c r="K15" s="7" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="363" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>215</v>
-      </c>
-      <c r="D16" s="11">
+        <v>177</v>
+      </c>
+      <c r="D16" s="9">
         <v>44919</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="9">
         <v>44920</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>583</v>
-      </c>
-      <c r="J16" s="7">
+        <v>21</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="J16" s="5">
         <v>0</v>
       </c>
-      <c r="K16" s="9" t="s">
-        <v>356</v>
+      <c r="K16" s="7" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>219</v>
-      </c>
-      <c r="D17" s="11">
+        <v>181</v>
+      </c>
+      <c r="D17" s="9">
         <v>44919</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="9">
         <v>44919</v>
       </c>
       <c r="F17" t="s">
-        <v>67</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="J17" s="7">
+        <v>29</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="J17" s="5">
         <v>0</v>
       </c>
-      <c r="K17" s="8" t="s">
-        <v>66</v>
+      <c r="K17" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>449</v>
-      </c>
-      <c r="D18" s="11">
+        <v>411</v>
+      </c>
+      <c r="D18" s="9">
         <v>44919</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="9">
         <v>44920</v>
       </c>
       <c r="F18" t="s">
-        <v>96</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="J18" s="7">
+        <v>58</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="J18" s="5">
         <v>0</v>
       </c>
-      <c r="K18" s="8" t="s">
-        <v>68</v>
+      <c r="K18" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="33" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>448</v>
-      </c>
-      <c r="D19" s="11">
+        <v>410</v>
+      </c>
+      <c r="D19" s="9">
         <v>44919</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="9">
         <v>44920</v>
       </c>
       <c r="F19" t="s">
-        <v>102</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="J19" s="7">
+        <v>64</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="J19" s="5">
         <v>0</v>
       </c>
-      <c r="K19" s="9" t="s">
-        <v>190</v>
+      <c r="K19" s="7" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D20" s="11">
+        <v>157</v>
+      </c>
+      <c r="D20" s="9">
         <v>44919</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="9">
         <v>44920</v>
       </c>
       <c r="F20" t="s">
-        <v>127</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="J20" s="7">
+        <v>89</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="J20" s="5">
         <v>0</v>
       </c>
-      <c r="K20" s="8" t="s">
-        <v>124</v>
+      <c r="K20" s="6" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>341</v>
-      </c>
-      <c r="D21" s="11">
+        <v>303</v>
+      </c>
+      <c r="D21" s="9">
         <v>44924</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="9">
         <v>44925</v>
       </c>
       <c r="F21" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="J21" s="7">
+        <v>19</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="J21" s="5">
         <v>0</v>
       </c>
-      <c r="K21" s="8" t="s">
-        <v>56</v>
+      <c r="K21" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>216</v>
-      </c>
-      <c r="D22" s="11">
+        <v>178</v>
+      </c>
+      <c r="D22" s="9">
         <v>44925</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="9">
         <v>44927</v>
       </c>
       <c r="F22" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="J22" s="7">
+        <v>10</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="J22" s="5">
         <v>0</v>
       </c>
-      <c r="K22" s="8" t="s">
-        <v>61</v>
+      <c r="K22" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>447</v>
-      </c>
-      <c r="D23" s="11">
+        <v>409</v>
+      </c>
+      <c r="D23" s="9">
         <v>44925</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="9">
         <v>44926</v>
       </c>
       <c r="F23" t="s">
-        <v>103</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="J23" s="7">
+        <v>65</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="J23" s="5">
         <v>0</v>
       </c>
-      <c r="K23" s="8" t="s">
-        <v>95</v>
+      <c r="K23" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="198" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s">
-        <v>199</v>
-      </c>
-      <c r="D24" s="11">
+        <v>161</v>
+      </c>
+      <c r="D24" s="9">
         <v>44925</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="9">
         <v>44926</v>
       </c>
       <c r="F24" t="s">
-        <v>131</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>583</v>
-      </c>
-      <c r="J24" s="7">
+        <v>93</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="J24" s="5">
         <v>0</v>
       </c>
-      <c r="K24" s="9" t="s">
-        <v>188</v>
+      <c r="K24" s="7" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="231" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>203</v>
-      </c>
-      <c r="D25" s="11">
+        <v>165</v>
+      </c>
+      <c r="D25" s="9">
         <v>44925</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="9">
         <v>44926</v>
       </c>
       <c r="F25" t="s">
-        <v>134</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>542</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>583</v>
-      </c>
-      <c r="J25" s="7">
+        <v>96</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="J25" s="5">
         <v>0</v>
       </c>
-      <c r="K25" s="9" t="s">
-        <v>194</v>
+      <c r="K25" s="7" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="C26" t="s">
-        <v>202</v>
-      </c>
-      <c r="D26" s="11">
+        <v>164</v>
+      </c>
+      <c r="D26" s="9">
         <v>44926</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="9">
         <v>44926</v>
       </c>
       <c r="F26" t="s">
-        <v>133</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="J26" s="7">
+        <v>95</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="J26" s="5">
         <v>0</v>
       </c>
-      <c r="K26" s="9" t="s">
-        <v>193</v>
+      <c r="K26" s="7" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="2:11" ht="247.5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>566</v>
+        <v>524</v>
       </c>
       <c r="C27" t="s">
-        <v>200</v>
-      </c>
-      <c r="D27" s="11">
+        <v>162</v>
+      </c>
+      <c r="D27" s="9">
         <v>44975</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="9">
         <v>44975</v>
       </c>
       <c r="F27" t="s">
-        <v>534</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>565</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>583</v>
-      </c>
-      <c r="J27" s="7">
+        <v>492</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="J27" s="5">
         <v>0</v>
       </c>
-      <c r="K27" s="9" t="s">
-        <v>191</v>
+      <c r="K27" s="7" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>212</v>
-      </c>
-      <c r="D28" s="11">
+        <v>174</v>
+      </c>
+      <c r="D28" s="9">
         <v>45005</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="9">
         <v>45005</v>
       </c>
       <c r="F28" t="s">
-        <v>48</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>567</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="J28" s="7">
+        <v>10</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="J28" s="5">
         <v>0</v>
       </c>
-      <c r="K28" s="8" t="s">
-        <v>47</v>
+      <c r="K28" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C29" t="s">
-        <v>175</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="E29" s="11">
+        <v>137</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="E29" s="9">
         <v>44906</v>
       </c>
       <c r="F29" t="s">
-        <v>103</v>
-      </c>
-      <c r="G29" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="H29" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="H29" s="7" t="s">
-        <v>568</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="J29" s="7">
+      <c r="I29" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="J29" s="5">
         <v>0</v>
       </c>
-      <c r="K29" s="8" t="s">
-        <v>246</v>
+      <c r="K29" s="6" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="C30" t="s">
-        <v>176</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>587</v>
-      </c>
-      <c r="E30" s="11">
+        <v>138</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="E30" s="9">
         <v>44913</v>
       </c>
       <c r="F30" t="s">
-        <v>183</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="J30" s="7">
+        <v>145</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="J30" s="5">
         <v>0</v>
       </c>
-      <c r="K30" s="8" t="s">
-        <v>166</v>
+      <c r="K30" s="6" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
-        <v>533</v>
+        <v>491</v>
       </c>
       <c r="C31" t="s">
-        <v>180</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>588</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>589</v>
+        <v>142</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>547</v>
       </c>
       <c r="F31" t="s">
-        <v>186</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>526</v>
+        <v>148</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>484</v>
       </c>
       <c r="H31" t="s">
-        <v>585</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="J31" s="7">
+        <v>543</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="J31" s="5">
         <v>0</v>
       </c>
-      <c r="K31" s="8" t="s">
-        <v>171</v>
+      <c r="K31" s="6" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="C32" t="s">
-        <v>172</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>590</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>591</v>
+        <v>134</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>549</v>
       </c>
       <c r="F32" t="s">
-        <v>103</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>570</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="J32" s="7">
+        <v>65</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="J32" s="5">
         <v>0</v>
       </c>
-      <c r="K32" s="8" t="s">
-        <v>164</v>
+      <c r="K32" s="6" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="C33" t="s">
-        <v>217</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>592</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>592</v>
+        <v>179</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>550</v>
       </c>
       <c r="F33" t="s">
-        <v>223</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="J33" s="7">
+        <v>185</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="J33" s="5">
         <v>0</v>
       </c>
-      <c r="K33" s="8" t="s">
-        <v>222</v>
+      <c r="K33" s="6" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="C34" t="s">
-        <v>173</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>594</v>
+        <v>135</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>552</v>
       </c>
       <c r="F34" t="s">
-        <v>181</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>572</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="J34" s="7">
+        <v>143</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="J34" s="5">
         <v>0</v>
       </c>
-      <c r="K34" s="8" t="s">
-        <v>165</v>
+      <c r="K34" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="C35" t="s">
-        <v>179</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>594</v>
+        <v>141</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>552</v>
       </c>
       <c r="F35" t="s">
-        <v>134</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="J35" s="7">
+        <v>96</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="J35" s="5">
         <v>0</v>
       </c>
-      <c r="K35" s="8" t="s">
-        <v>170</v>
+      <c r="K35" s="6" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>162</v>
+        <v>124</v>
       </c>
       <c r="C36" t="s">
-        <v>178</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>595</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>596</v>
+        <v>140</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>554</v>
       </c>
       <c r="F36" t="s">
-        <v>67</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>574</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="J36" s="7">
+        <v>29</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="J36" s="5">
         <v>0</v>
       </c>
-      <c r="K36" s="8" t="s">
-        <v>169</v>
+      <c r="K36" s="6" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>214</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>597</v>
-      </c>
-      <c r="E37" s="11">
+        <v>176</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="E37" s="9">
         <v>44920</v>
       </c>
       <c r="F37" t="s">
-        <v>54</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>575</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="J37" s="7">
+        <v>16</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="J37" s="5">
         <v>0</v>
       </c>
-      <c r="K37" s="8" t="s">
-        <v>53</v>
+      <c r="K37" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="C38" t="s">
-        <v>174</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>598</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>599</v>
+        <v>136</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>557</v>
       </c>
       <c r="F38" t="s">
-        <v>182</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>576</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="J38" s="7">
+        <v>144</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="J38" s="5">
         <v>0</v>
       </c>
-      <c r="K38" s="8" t="s">
-        <v>106</v>
+      <c r="K38" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="C39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>600</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>601</v>
+        <v>186</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>559</v>
       </c>
       <c r="F39" t="s">
-        <v>185</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>577</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="J39" s="7">
+        <v>147</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="J39" s="5">
         <v>0</v>
       </c>
-      <c r="K39" s="8" t="s">
-        <v>168</v>
+      <c r="K39" s="6" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>445</v>
+        <v>407</v>
       </c>
       <c r="C40" t="s">
-        <v>446</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>602</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>602</v>
+        <v>408</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>560</v>
       </c>
       <c r="F40" t="s">
-        <v>443</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="I40" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="J40" s="7">
+        <v>405</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="J40" s="5">
         <v>0</v>
       </c>
-      <c r="K40" s="8" t="s">
-        <v>444</v>
+      <c r="K40" s="6" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="C41" t="s">
-        <v>177</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>603</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>604</v>
+        <v>139</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>562</v>
       </c>
       <c r="F41" t="s">
-        <v>184</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>579</v>
-      </c>
-      <c r="I41" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="J41" s="7">
+        <v>146</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="J41" s="5">
         <v>0</v>
       </c>
-      <c r="K41" s="8" t="s">
-        <v>167</v>
+      <c r="K41" s="6" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -8634,26 +8171,626 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA5C4D9-35A9-4254-9DD0-C575BAA3106D}">
+  <dimension ref="A1:B73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>16</v>
+      </c>
+      <c r="B32" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>16</v>
+      </c>
+      <c r="B33" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>17</v>
+      </c>
+      <c r="B34" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>17</v>
+      </c>
+      <c r="B35" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>18</v>
+      </c>
+      <c r="B36" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>18</v>
+      </c>
+      <c r="B37" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>19</v>
+      </c>
+      <c r="B38" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>19</v>
+      </c>
+      <c r="B39" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>21</v>
+      </c>
+      <c r="B41" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>22</v>
+      </c>
+      <c r="B42" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>22</v>
+      </c>
+      <c r="B43" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>24</v>
+      </c>
+      <c r="B44" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>25</v>
+      </c>
+      <c r="B45" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>25</v>
+      </c>
+      <c r="B46" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>25</v>
+      </c>
+      <c r="B47" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>26</v>
+      </c>
+      <c r="B48" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>27</v>
+      </c>
+      <c r="B49" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>28</v>
+      </c>
+      <c r="B50" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>28</v>
+      </c>
+      <c r="B51" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>29</v>
+      </c>
+      <c r="B52" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>29</v>
+      </c>
+      <c r="B53" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>30</v>
+      </c>
+      <c r="B54" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>30</v>
+      </c>
+      <c r="B55" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>31</v>
+      </c>
+      <c r="B56" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>31</v>
+      </c>
+      <c r="B57" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>32</v>
+      </c>
+      <c r="B58" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>32</v>
+      </c>
+      <c r="B59" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>33</v>
+      </c>
+      <c r="B60" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>34</v>
+      </c>
+      <c r="B61" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>35</v>
+      </c>
+      <c r="B62" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>35</v>
+      </c>
+      <c r="B63" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>36</v>
+      </c>
+      <c r="B64" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>37</v>
+      </c>
+      <c r="B65" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>37</v>
+      </c>
+      <c r="B66" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>37</v>
+      </c>
+      <c r="B67" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>38</v>
+      </c>
+      <c r="B68" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>38</v>
+      </c>
+      <c r="B69" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>39</v>
+      </c>
+      <c r="B70" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>39</v>
+      </c>
+      <c r="B71" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>39</v>
+      </c>
+      <c r="B72" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>40</v>
+      </c>
+      <c r="B73" t="s">
+        <v>495</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F44E044-B5AF-495E-8391-C624A99831DE}">
   <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
